--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -258,9 +258,6 @@
     <t>https://rabota.by/search/resume?area=1004&amp;area=2238&amp;label=only_with_salary&amp;relocation=living_or_relocation&amp;gender=unknown&amp;clusters=true&amp;exp_period=all_time&amp;items_on_page=100&amp;logic=normal&amp;no_magic=true&amp;order_by=relevance&amp;ored_clusters=true&amp;pos=position&amp;text=!</t>
   </si>
   <si>
-    <t>Водитель-международник,C5,urlMMO;Птицевод,C5,urlMMO;Животновод,C5,urlMMO;Оператор машинного доения,C5,urlMMO;Изготовитель полуфабрикатов,C5,urlMMO;Водитель-международник,C5,urlMog;Птицевод,C5,urlMog;Животновод,C5,urlMog;Оператор машинного доения,C5,urlMog;Изготовитель полуфабрикатов,C5,urlMog;Грузчик,C5,urlMog;Слесарь-ремонтник,C5,urlMog;Кладовщик,C5,urlMog;Укладчик-упаковщик/ комплектовщик,C5,urlMog;Слесарь-сантехник,C5,urlMog;Уборщик служебных (производственных) помещений/ уборщик территории,C5,urlMog;Обвальщик мяса (тушек птицы),C5,urlMog;Продавец,C5,urlMog</t>
-  </si>
-  <si>
     <t>https://rabota.by/search/vacancy?text=%21%28%D0%92%D0%BE%D0%B4%D0%B8%D1%82%D0%B5%D0%BB%D1%8C+OR+%22%D0%BA%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F+%D0%A1%22+OR+%22%D0%BA%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F+C%22%29+NOT+%D0%BC%D0%B5%D0%B6%D0%B4%D1%83%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA+NOT+%D1%82%D0%B0%D0%BA%D1%81%D0%B8+NOT+%D0%BA%D1%83%D1%80%D1%8C%D0%B5%D1%80&amp;search_field=name&amp;area=2237&amp;area=1002&amp;salary=&amp;currency_code=BYR&amp;only_with_salary=true&amp;experience=doesNotMatter&amp;order_by=relevance&amp;search_period=0&amp;items_on_page=50&amp;no_magic=true&amp;L_save_area=true</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>https://rabota.by/search/vacancy?text=%21%28%D0%92%D0%BE%D0%B4%D0%B8%D1%82%D0%B5%D0%BB%D1%8C+OR+%22%D0%BA%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F+%D0%A1%22+OR+%22%D0%BA%D0%B0%D1%82%D0%B5%D0%B3%D0%BE%D1%80%D0%B8%D1%8F+C%22%29+NOT+%D0%BC%D0%B5%D0%B6%D0%B4%D1%83%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA+NOT+%D1%82%D0%B0%D0%BA%D1%81%D0%B8+NOT+%D0%BA%D1%83%D1%80%D1%8C%D0%B5%D1%80&amp;search_field=name&amp;area=2238&amp;area=1004&amp;salary=&amp;currency_code=BYR&amp;only_with_salary=true&amp;experience=doesNotMatter&amp;order_by=relevance&amp;search_period=0&amp;items_on_page=50&amp;no_magic=true&amp;L_save_area=true</t>
+  </si>
+  <si>
+    <t>Водитель,C5,urlMMOdriver;Водитель-международник,C5,urlMMO;Птицевод,C5,urlMMO;Животновод,C5,urlMMO;Оператор машинного доения,C5,urlMMO;Изготовитель полуфабрикатов,C5,urlMMO</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="207" customHeight="1">
@@ -755,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -806,18 +806,18 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
